--- a/docs/Assets/Reissue-Reason-Codes.xlsx
+++ b/docs/Assets/Reissue-Reason-Codes.xlsx
@@ -3,6 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <workbookProtection workbookPassword="953F" lockStructure="1"/>
   <bookViews>
     <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
@@ -69,9 +70,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -96,8 +97,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,6 +120,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -117,7 +143,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -134,7 +159,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,89 +167,12 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -239,6 +187,59 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -249,67 +250,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,115 +400,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,13 +444,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,21 +464,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,32 +486,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,6 +506,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -548,10 +549,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -560,133 +561,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1060,7 +1061,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="str">
-        <f>UPPER("reissue")&amp;"_"&amp;RIGHT("0000"&amp;A2,4)</f>
+        <f t="shared" ref="B2:B7" si="0">UPPER("reissue")&amp;"_"&amp;RIGHT("0000"&amp;A2,4)</f>
         <v>REISSUE_0001</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1070,7 +1071,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="3" t="str">
-        <f>"["&amp;B2&amp;"]: "&amp;C2</f>
+        <f t="shared" ref="E2:E7" si="1">"["&amp;B2&amp;"]: "&amp;C2</f>
         <v>[REISSUE_0001]: 消息报文乱码。</v>
       </c>
     </row>
@@ -1079,7 +1080,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="str">
-        <f>UPPER("reissue")&amp;"_"&amp;RIGHT("0000"&amp;A3,4)</f>
+        <f t="shared" si="0"/>
         <v>REISSUE_0002</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1089,7 +1090,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="3" t="str">
-        <f>"["&amp;B3&amp;"]: "&amp;C3</f>
+        <f t="shared" si="1"/>
         <v>[REISSUE_0002]: 消息验签错误。</v>
       </c>
     </row>
@@ -1098,7 +1099,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="str">
-        <f>UPPER("reissue")&amp;"_"&amp;RIGHT("0000"&amp;A4,4)</f>
+        <f t="shared" si="0"/>
         <v>REISSUE_0003</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1108,7 +1109,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="3" t="str">
-        <f>"["&amp;B4&amp;"]: "&amp;C4</f>
+        <f t="shared" si="1"/>
         <v>[REISSUE_0003]: 消息反序列化失败。</v>
       </c>
     </row>
@@ -1117,7 +1118,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="str">
-        <f>UPPER("reissue")&amp;"_"&amp;RIGHT("0000"&amp;A5,4)</f>
+        <f t="shared" si="0"/>
         <v>REISSUE_0004</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1127,7 +1128,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="3" t="str">
-        <f>"["&amp;B5&amp;"]: "&amp;C5</f>
+        <f t="shared" si="1"/>
         <v>[REISSUE_0004]: 消息合包错误。</v>
       </c>
     </row>
@@ -1136,7 +1137,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="str">
-        <f>UPPER("reissue")&amp;"_"&amp;RIGHT("0000"&amp;A6,4)</f>
+        <f t="shared" si="0"/>
         <v>REISSUE_0005</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1146,7 +1147,7 @@
         <v>14</v>
       </c>
       <c r="E6" s="3" t="str">
-        <f>"["&amp;B6&amp;"]: "&amp;C6</f>
+        <f t="shared" si="1"/>
         <v>[REISSUE_0005]: 消息分包未到达。</v>
       </c>
     </row>
@@ -1155,20 +1156,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="str">
-        <f>UPPER("reissue")&amp;"_"&amp;RIGHT("0000"&amp;A7,4)</f>
+        <f t="shared" si="0"/>
         <v>REISSUE_0006</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="3"/>
       <c r="E7" s="3" t="str">
-        <f>"["&amp;B7&amp;"]: "&amp;C7</f>
+        <f t="shared" si="1"/>
         <v>[REISSUE_0006]: 其他未知原因。</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter/>
 </worksheet>
 </file>